--- a/src/test/resources/urunListesi.xlsx
+++ b/src/test/resources/urunListesi.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>urun ismi</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>24/01/2025</t>
+  </si>
+  <si>
+    <t>25/01/2025</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
         <v>4.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,7 +492,7 @@
         <v>10.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -503,7 +506,7 @@
         <v>0.0</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,7 +520,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +534,7 @@
         <v>3.0</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,7 +548,7 @@
         <v>3.0</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,7 +576,7 @@
         <v>4.0</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
